--- a/xls/positionAttribute.xlsx
+++ b/xls/positionAttribute.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="30" windowWidth="27765" windowHeight="13620" activeTab="1"/>
+    <workbookView xWindow="13950" yWindow="60" windowWidth="27765" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="@位置攻击系数" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,12 +45,32 @@
     <t>位置攻击系数:PositionAttribute</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>任意球威力系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意球人墙人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBallpower[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeBallDefenser[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅计算用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +107,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,89 +139,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -205,14 +172,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -247,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,20 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +483,14 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,8 +500,17 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>12</v>
       </c>
@@ -536,9 +520,19 @@
       <c r="C3" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="D3" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(200-100)*D3/150</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>13</v>
       </c>
       <c r="B4" s="3">
@@ -547,9 +541,19 @@
       <c r="C4" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="D4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F35" si="0">(200-100)*D4/150</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>14</v>
       </c>
       <c r="B5" s="3">
@@ -558,9 +562,19 @@
       <c r="C5" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="D5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>15</v>
       </c>
       <c r="B6" s="3">
@@ -569,9 +583,19 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>16</v>
       </c>
       <c r="B7" s="3">
@@ -580,9 +604,19 @@
       <c r="C7" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="D7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>17</v>
       </c>
       <c r="B8" s="3">
@@ -591,8 +625,18 @@
       <c r="C8" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>18</v>
       </c>
@@ -602,10 +646,20 @@
       <c r="C9" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <f t="shared" ref="A10:A30" si="0">A3+10</f>
+        <f t="shared" ref="A10:A30" si="1">A3+10</f>
         <v>22</v>
       </c>
       <c r="B10" s="3">
@@ -614,10 +668,20 @@
       <c r="C10" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
+      <c r="D10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B11" s="3">
@@ -626,10 +690,20 @@
       <c r="C11" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
+      <c r="D11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B12" s="3">
@@ -638,10 +712,20 @@
       <c r="C12" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
+      <c r="D12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B13" s="3">
@@ -650,10 +734,20 @@
       <c r="C13" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B14" s="3">
@@ -662,10 +756,20 @@
       <c r="C14" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
+      <c r="D14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B15" s="3">
@@ -674,10 +778,20 @@
       <c r="C15" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B16" s="3">
@@ -686,10 +800,20 @@
       <c r="C16" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B17" s="3">
@@ -698,10 +822,20 @@
       <c r="C17" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B18" s="3">
@@ -710,10 +844,20 @@
       <c r="C18" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B19" s="3">
@@ -722,10 +866,20 @@
       <c r="C19" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B20" s="3">
@@ -734,10 +888,20 @@
       <c r="C20" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B21" s="3">
@@ -746,10 +910,20 @@
       <c r="C21" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B22" s="3">
@@ -758,10 +932,20 @@
       <c r="C22" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B23" s="3">
@@ -770,10 +954,20 @@
       <c r="C23" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B24" s="3">
@@ -782,10 +976,20 @@
       <c r="C24" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B25" s="3">
@@ -794,10 +998,20 @@
       <c r="C25" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B26" s="3">
@@ -806,10 +1020,20 @@
       <c r="C26" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B27" s="3">
@@ -818,10 +1042,20 @@
       <c r="C27" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D27" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B28" s="3">
@@ -830,10 +1064,20 @@
       <c r="C28" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D28" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B29" s="3">
@@ -842,10 +1086,20 @@
       <c r="C29" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B30" s="3">
@@ -854,8 +1108,18 @@
       <c r="C30" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>53</v>
       </c>
@@ -865,8 +1129,18 @@
       <c r="C31" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>54</v>
       </c>
@@ -876,8 +1150,18 @@
       <c r="C32" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>55</v>
       </c>
@@ -887,8 +1171,18 @@
       <c r="C33" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D33" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>56</v>
       </c>
@@ -898,8 +1192,18 @@
       <c r="C34" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>57</v>
       </c>
@@ -908,6 +1212,16 @@
       </c>
       <c r="C35" s="4">
         <v>35</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
